--- a/src/analysis_examples/circadb/results_jtk/cosinor_10342021_nan_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10342021_nan_.xlsx
@@ -589,51 +589,51 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.205313510457601, 0.32271559180521464]</t>
+          <t>[0.2056037400277515, 0.32242536223506413]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6.164613930437213e-09</v>
+        <v>5.662982971443853e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>6.164613930437213e-09</v>
+        <v>5.662982971443853e-09</v>
       </c>
       <c r="O2" t="n">
         <v>0.2830263651882694</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[0.03144737390980712, 0.5346053564667317]</t>
+          <t>[0.044026323473730145, 0.5220264069028087]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.02926528589888111</v>
+        <v>0.02251710235845472</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02926528589888111</v>
+        <v>0.02251710235845472</v>
       </c>
       <c r="S2" t="n">
         <v>0.3384532200629627</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.30341066500651126, 0.3734957751194141]</t>
+          <t>[0.3034133579831942, 0.3734930821427312]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="V2" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="W2" t="n">
         <v>26.71009009009128</v>
       </c>
       <c r="X2" t="n">
-        <v>25.59017017017131</v>
+        <v>25.64616616616731</v>
       </c>
       <c r="Y2" t="n">
-        <v>27.83001001001125</v>
+        <v>27.77401401401525</v>
       </c>
     </row>
   </sheetData>
